--- a/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
+++ b/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
@@ -220,9 +220,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +685,7 @@
   <dimension ref="B6:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -694,20 +694,20 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="4" style="13" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -734,10 +734,10 @@
       <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>4</v>
       </c>
     </row>
@@ -773,22 +773,19 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="17">
         <v>0</v>
       </c>
-      <c r="H9" s="12">
-        <f>((D9+E9+F9+G9)/20)</f>
-        <v>0.1</v>
-      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -817,16 +814,16 @@
       <c r="I10" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
+++ b/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="285" windowWidth="20640" windowHeight="9975"/>
+    <workbookView xWindow="5115" yWindow="285" windowWidth="17520" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -230,14 +230,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -699,15 +699,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -773,16 +773,16 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
-        <f>(D10+E10+F10+G10)/18</f>
-        <v>0.16666666666666666</v>
+        <f>(D10+E10+F10+G10)/18*100</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
+++ b/IFTC.PPQA.RE03_Registro de resultados de metricas_(v0.1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="285" windowWidth="17520" windowHeight="9975"/>
+    <workbookView xWindow="5115" yWindow="285" windowWidth="20640" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -230,14 +230,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="D10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -699,15 +699,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -773,16 +773,16 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
-        <f>(D10+E10+F10+G10)/18*100</f>
-        <v>16.666666666666664</v>
+        <f>(D10+E10+F10+G10)/18</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
